--- a/data/trans_dic/IP11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,52</t>
+          <t>3,17; 25,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,08</t>
+          <t>4,06; 32,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,8</t>
+          <t>2,2; 28,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,72</t>
+          <t>0; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,85</t>
+          <t>5,24; 32,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,11</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,87</t>
+          <t>0,0; 24,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,97</t>
+          <t>0,0; 13,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,97</t>
+          <t>6,7; 23,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,99</t>
+          <t>2,15; 19,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,37</t>
+          <t>2,21; 19,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,96</t>
+          <t>0,0; 7,05</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,1</t>
+          <t>4,07; 9,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 13,24</t>
+          <t>6,07; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,99</t>
+          <t>3,03; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,24</t>
+          <t>0,97; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,16</t>
+          <t>1,87; 5,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,23</t>
+          <t>7,33; 14,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,49</t>
+          <t>2,4; 6,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,84</t>
+          <t>1,01; 4,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,59</t>
+          <t>3,54; 6,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,04</t>
+          <t>7,35; 11,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,53</t>
+          <t>3,32; 6,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,56</t>
+          <t>1,25; 3,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 25,74</t>
+          <t>3,23; 9,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 32,83</t>
+          <t>7,55; 15,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 28,46</t>
+          <t>2,63; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,96; 7,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 32,22</t>
+          <t>2,31; 8,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>3,02; 9,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,54</t>
+          <t>1,33; 5,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,91</t>
+          <t>1,88; 6,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 23,54</t>
+          <t>3,41; 7,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,5</t>
+          <t>6,18; 10,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 19,52</t>
+          <t>2,47; 5,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,05</t>
+          <t>2,5; 6,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,73%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,45</t>
+          <t>3,16; 8,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,54</t>
+          <t>6,36; 13,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,78</t>
+          <t>3,34; 8,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,7</t>
+          <t>2,07; 7,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,26</t>
+          <t>2,25; 7,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,18</t>
+          <t>3,55; 9,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,34</t>
+          <t>0,36; 3,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,9</t>
+          <t>0,37; 3,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,71</t>
+          <t>3,27; 6,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,79</t>
+          <t>5,71; 10,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,73</t>
+          <t>2,22; 5,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,11</t>
+          <t>1,52; 4,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 25,74</t>
+          <t>3,16; 26,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 32,83</t>
+          <t>4,51; 34,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 28,46</t>
+          <t>2,19; 28,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 32,22</t>
+          <t>5,73; 32,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,54</t>
+          <t>0,0; 23,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 23,54</t>
+          <t>6,66; 24,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,5</t>
+          <t>2,09; 18,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 19,52</t>
+          <t>2,2; 18,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 12,38</t>
+          <t>4,79; 12,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,84</t>
+          <t>5,79; 14,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,11</t>
+          <t>2,99; 10,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,49</t>
+          <t>0,52; 5,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,83</t>
+          <t>4,59; 12,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,67</t>
+          <t>4,57; 12,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,75</t>
+          <t>2,35; 9,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,16</t>
+          <t>1,02; 7,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,12</t>
+          <t>5,47; 11,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,03</t>
+          <t>6,19; 12,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,47</t>
+          <t>3,47; 8,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,58</t>
+          <t>1,19; 4,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,52</t>
+          <t>4,24; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,08</t>
+          <t>6,11; 12,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,8</t>
+          <t>3,16; 8,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,72</t>
+          <t>0,86; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,85</t>
+          <t>2,02; 6,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,11</t>
+          <t>7,34; 14,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,87</t>
+          <t>2,55; 7,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,97</t>
+          <t>0,94; 5,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,97</t>
+          <t>3,67; 6,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,99</t>
+          <t>7,38; 12,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,37</t>
+          <t>3,22; 6,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,96</t>
+          <t>1,24; 4,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,45</t>
+          <t>3,5; 9,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,54</t>
+          <t>7,42; 15,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,78</t>
+          <t>2,59; 7,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,7</t>
+          <t>2,08; 7,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,26</t>
+          <t>2,3; 8,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,18</t>
+          <t>3,15; 9,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,34</t>
+          <t>1,3; 5,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,9</t>
+          <t>1,65; 6,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,71</t>
+          <t>3,46; 7,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,79</t>
+          <t>5,97; 10,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,73</t>
+          <t>2,53; 5,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,11</t>
+          <t>2,56; 6,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,1</t>
+          <t>3,16; 8,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 13,24</t>
+          <t>6,17; 13,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,99</t>
+          <t>3,35; 8,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,24</t>
+          <t>2,02; 7,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,16</t>
+          <t>2,45; 7,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,23</t>
+          <t>3,58; 9,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,49</t>
+          <t>0,37; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,84</t>
+          <t>0,36; 3,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,59</t>
+          <t>3,15; 6,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,04</t>
+          <t>5,58; 10,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,53</t>
+          <t>2,33; 5,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,56</t>
+          <t>1,7; 4,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,09</t>
+          <t>5,06; 8,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,67</t>
+          <t>7,87; 11,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,04</t>
+          <t>4,15; 6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,54</t>
+          <t>2,11; 4,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,65</t>
+          <t>3,99; 6,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,93</t>
+          <t>5,77; 9,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,48</t>
+          <t>2,29; 4,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,83</t>
+          <t>1,68; 3,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,98; 6,9</t>
+          <t>4,91; 6,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,83</t>
+          <t>7,49; 9,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,45</t>
+          <t>3,59; 5,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,77</t>
+          <t>2,2; 3,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 26,88</t>
+          <t>3,15; 27,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 34,65</t>
+          <t>4,14; 34,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 28,04</t>
+          <t>2,2; 25,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 32,51</t>
+          <t>5,73; 32,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,39 +754,39 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,84</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,91</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 24,51</t>
+          <t>6,03; 23,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 18,62</t>
+          <t>2,2; 20,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 18,07</t>
+          <t>2,19; 17,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,05</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 12,54</t>
+          <t>4,69; 12,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 14,62</t>
+          <t>5,98; 14,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,43</t>
+          <t>3,02; 10,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,06</t>
+          <t>0,49; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,71</t>
+          <t>4,57; 12,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,76</t>
+          <t>4,19; 12,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,22</t>
+          <t>2,49; 9,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,3</t>
+          <t>0,99; 7,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,0</t>
+          <t>5,4; 11,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,03</t>
+          <t>6,2; 12,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,75</t>
+          <t>3,8; 8,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,71</t>
+          <t>1,16; 4,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,96</t>
+          <t>3,84; 9,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 12,54</t>
+          <t>5,64; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,1</t>
+          <t>3,08; 7,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,17</t>
+          <t>0,96; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,03</t>
+          <t>1,86; 5,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,5</t>
+          <t>7,49; 14,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,04</t>
+          <t>2,45; 7,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,01</t>
+          <t>1,08; 5,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,93</t>
+          <t>3,61; 7,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,01</t>
+          <t>7,45; 12,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,41</t>
+          <t>3,26; 6,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,23</t>
+          <t>1,27; 3,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,94</t>
+          <t>3,15; 9,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 15,1</t>
+          <t>7,6; 15,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,83</t>
+          <t>2,54; 8,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,89</t>
+          <t>1,84; 7,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,04</t>
+          <t>2,05; 8,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,06</t>
+          <t>3,21; 9,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,22</t>
+          <t>1,34; 5,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,66</t>
+          <t>1,88; 6,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,78</t>
+          <t>3,37; 7,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,84</t>
+          <t>6,2; 11,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,63</t>
+          <t>2,44; 5,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,24</t>
+          <t>2,63; 6,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,07</t>
+          <t>3,09; 8,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,25</t>
+          <t>6,32; 13,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,92</t>
+          <t>3,36; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,35</t>
+          <t>2,08; 7,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,34</t>
+          <t>2,5; 7,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,57</t>
+          <t>3,84; 9,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,6</t>
+          <t>0,36; 3,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,57</t>
+          <t>0,37; 3,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,65</t>
+          <t>3,28; 6,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,03</t>
+          <t>5,58; 10,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,29</t>
+          <t>2,29; 5,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,68</t>
+          <t>1,69; 4,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,06</t>
+          <t>4,99; 8,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,6</t>
+          <t>8,06; 11,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,93</t>
+          <t>4,19; 6,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,38</t>
+          <t>2,14; 4,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,63</t>
+          <t>3,99; 6,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,01</t>
+          <t>5,8; 8,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,49</t>
+          <t>2,36; 4,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,94</t>
+          <t>1,73; 3,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,81</t>
+          <t>4,98; 6,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 9,73</t>
+          <t>7,37; 9,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,38</t>
+          <t>3,57; 5,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,73</t>
+          <t>2,19; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 27,64</t>
+          <t>5,73; 13,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 34,94</t>
+          <t>3,55; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 25,22</t>
+          <t>2,56; 9,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,15; 7,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 32,03</t>
+          <t>5,43; 13,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>6,61; 15,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,43</t>
+          <t>3,89; 11,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,73</t>
+          <t>0,42; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 23,1</t>
+          <t>6,47; 12,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 20,69</t>
+          <t>6,15; 11,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 17,42</t>
+          <t>3,93; 8,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>1,04; 4,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 12,44</t>
+          <t>1,87; 5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 14,29</t>
+          <t>7,33; 14,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,44</t>
+          <t>2,4; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,62</t>
+          <t>0,87; 4,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,77</t>
+          <t>4,07; 9,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,52</t>
+          <t>6,07; 12,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,61</t>
+          <t>3,03; 7,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,21</t>
+          <t>1,02; 4,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,09</t>
+          <t>3,54; 6,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,18</t>
+          <t>7,35; 11,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,98</t>
+          <t>3,32; 6,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,86</t>
+          <t>1,31; 4,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,27</t>
+          <t>2,31; 8,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,37</t>
+          <t>3,02; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,77</t>
+          <t>1,33; 5,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,08</t>
+          <t>1,6; 6,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,96</t>
+          <t>3,23; 9,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 14,62</t>
+          <t>7,55; 15,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,1</t>
+          <t>2,63; 7,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,37</t>
+          <t>2,01; 8,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,15</t>
+          <t>3,41; 7,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,11</t>
+          <t>6,18; 10,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,47</t>
+          <t>2,47; 5,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,85</t>
+          <t>2,31; 6,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,73%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,84</t>
+          <t>2,25; 7,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,21</t>
+          <t>3,55; 9,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,2</t>
+          <t>0,36; 3,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,76</t>
+          <t>0,4; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 8,28</t>
+          <t>3,16; 8,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,05</t>
+          <t>6,36; 13,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,19</t>
+          <t>3,34; 8,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,96</t>
+          <t>2,1; 7,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,55</t>
+          <t>3,27; 6,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,12</t>
+          <t>5,71; 10,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,95</t>
+          <t>2,22; 5,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,5</t>
+          <t>1,56; 4,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,37</t>
+          <t>3,85; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,78</t>
+          <t>5,81; 8,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,1</t>
+          <t>2,3; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,43</t>
+          <t>1,74; 3,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,62</t>
+          <t>5,08; 8,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,44</t>
+          <t>8,14; 11,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,26</t>
+          <t>4,12; 7,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,7</t>
+          <t>2,14; 4,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,71</t>
+          <t>4,98; 6,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,07</t>
+          <t>7,41; 9,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,33</t>
+          <t>3,64; 5,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,74</t>
+          <t>2,16; 3,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,56%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 8,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 11,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 6,9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 4,56</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 6,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 8,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 4,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 3,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 6,92</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 9,84</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 5,36</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 3,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
